--- a/public/local/fixtures/calculator/Экспертиза калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Экспертиза калькуляторы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="37560" windowHeight="21140"/>
+    <workbookView xWindow="18740" yWindow="0" windowWidth="18720" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Экспертиза одного здания" sheetId="4" r:id="rId1"/>
@@ -730,9 +730,6 @@
     <t>15. Удаленность объектов друг от друга</t>
   </si>
   <si>
-    <t>16. Транспортная доуступность</t>
-  </si>
-  <si>
     <t>16.1. Зона действия общественного транспорта</t>
   </si>
   <si>
@@ -1757,6 +1754,9 @@
   </si>
   <si>
     <t>5. Необходимость выезда на объекты</t>
+  </si>
+  <si>
+    <t>16. Транспортная доступность</t>
   </si>
 </sst>
 </file>
@@ -2874,7 +2874,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="171">
@@ -3323,7 +3323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3333,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A179" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A98" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="18" spans="1:32" ht="15">
       <c r="B18" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C18" s="15"/>
     </row>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C111" s="15">
         <v>0.8</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C112" s="15">
         <v>0.8</v>
@@ -4745,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="15">
         <v>0.8</v>
@@ -4756,7 +4756,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C114" s="15">
         <v>0.9</v>
@@ -4767,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C115" s="15">
         <v>0.8</v>
@@ -4778,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C116" s="15">
         <v>0.9</v>
@@ -4789,7 +4789,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C117" s="15">
         <v>0.9</v>
@@ -4800,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C118" s="15">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C119" s="15">
         <v>1.1000000000000001</v>
@@ -4822,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C120" s="15">
         <v>1.1000000000000001</v>
@@ -4833,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C121" s="15">
         <v>1.1000000000000001</v>
@@ -4844,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C122" s="15">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C123" s="15">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C124" s="15">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C125" s="15">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C126" s="15">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>17</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C127" s="15">
         <v>1</v>
@@ -4910,7 +4910,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C128" s="15">
         <v>1</v>
@@ -4921,7 +4921,7 @@
         <v>19</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C129" s="15">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C130" s="15">
         <v>0.8</v>
@@ -4943,7 +4943,7 @@
         <v>21</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C131" s="15">
         <v>0.8</v>
@@ -4954,13 +4954,13 @@
         <v>22</v>
       </c>
       <c r="B132" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C132" s="16">
         <v>1</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:32" ht="15" thickBot="1">
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C184" s="15">
         <v>1.5</v>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C185" s="15">
         <v>1.25</v>
@@ -5638,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186" s="15">
         <v>1.28</v>
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C187" s="15">
         <v>1.22</v>
@@ -5666,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C188" s="15">
         <v>1.2</v>
@@ -5680,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C189" s="15">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C190" s="15">
         <v>1</v>
@@ -5708,7 +5708,7 @@
         <v>8</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C191" s="15">
         <v>0.9</v>
@@ -5722,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C192" s="15">
         <v>0.9</v>
@@ -5736,7 +5736,7 @@
         <v>10</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C193" s="15">
         <v>0.9</v>
@@ -5750,7 +5750,7 @@
         <v>11</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C194" s="15">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>131</v>
       </c>
       <c r="J196" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K196" s="81"/>
       <c r="L196" s="30"/>
@@ -5814,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C197" s="18">
         <v>0.55000000000000004</v>
@@ -5859,7 +5859,7 @@
         <v>13</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C198" s="18">
         <v>0.64</v>
@@ -5904,7 +5904,7 @@
         <v>14</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="18">
         <v>0.45</v>
@@ -5949,7 +5949,7 @@
         <v>15</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C200" s="18">
         <v>0.44</v>
@@ -5994,7 +5994,7 @@
         <v>16</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C201" s="18">
         <v>0.45</v>
@@ -6039,7 +6039,7 @@
         <v>17</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C202" s="18">
         <v>0.55000000000000004</v>
@@ -6084,7 +6084,7 @@
         <v>18</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" s="18">
         <v>0.44</v>
@@ -6129,7 +6129,7 @@
         <v>19</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204" s="18">
         <v>0.74</v>
@@ -6174,7 +6174,7 @@
         <v>20</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" s="18">
         <v>0.45</v>
@@ -6219,7 +6219,7 @@
         <v>21</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206" s="18">
         <v>0.44</v>
@@ -6264,7 +6264,7 @@
         <v>22</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" s="18">
         <v>0.55000000000000004</v>
@@ -6308,7 +6308,7 @@
         <v>23</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" s="18">
         <v>0.44</v>
@@ -6352,7 +6352,7 @@
         <v>24</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="18">
         <v>0.64</v>
@@ -6396,7 +6396,7 @@
         <v>25</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C210" s="18">
         <v>0.44</v>
@@ -6440,7 +6440,7 @@
         <v>26</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="18">
         <v>0.64</v>
@@ -6484,7 +6484,7 @@
         <v>27</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C212" s="18">
         <v>0.45</v>
@@ -6528,7 +6528,7 @@
         <v>28</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C213" s="18">
         <v>0.64</v>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="J213" s="74"/>
       <c r="K213" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L213" s="28"/>
       <c r="M213" s="29"/>
@@ -6572,7 +6572,7 @@
         <v>29</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C214" s="18">
         <v>0.55000000000000004</v>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="J214" s="74"/>
       <c r="K214" s="75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L214" s="28"/>
       <c r="M214" s="29"/>
@@ -6650,7 +6650,7 @@
         <v>30</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C216" s="31">
         <v>0.56999999999999995</v>
@@ -6696,7 +6696,7 @@
         <v>31</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217" s="34">
         <v>0.42</v>
@@ -6742,7 +6742,7 @@
         <v>32</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C218" s="34">
         <v>0.47</v>
@@ -6788,7 +6788,7 @@
         <v>33</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C219" s="34">
         <v>0.37</v>
@@ -6834,7 +6834,7 @@
         <v>34</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C220" s="34">
         <v>0.42</v>
@@ -6880,7 +6880,7 @@
         <v>35</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C221" s="34">
         <v>0.37</v>
@@ -6926,7 +6926,7 @@
         <v>36</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C222" s="34">
         <v>0.43</v>
@@ -6972,7 +6972,7 @@
         <v>37</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C223" s="34">
         <v>0.32</v>
@@ -7018,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C224" s="37">
         <v>0.56999999999999995</v>
@@ -7074,7 +7074,7 @@
         <v>39</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C226" s="15">
         <v>0.6</v>
@@ -7088,7 +7088,7 @@
         <v>40</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C227" s="15">
         <v>0.45</v>
@@ -7100,7 +7100,7 @@
     <row r="228" spans="1:32" s="16" customFormat="1">
       <c r="A228" s="78"/>
       <c r="B228" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C228" s="15"/>
       <c r="AD228" s="13"/>
@@ -7122,7 +7122,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C230" s="15">
         <v>1.4</v>
@@ -7136,7 +7136,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C231" s="15">
         <v>1.2</v>
@@ -7150,7 +7150,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C232" s="15">
         <v>1.25</v>
@@ -7164,7 +7164,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C233" s="15">
         <v>1.0900000000000001</v>
@@ -7178,7 +7178,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C234" s="15">
         <v>1.1000000000000001</v>
@@ -7192,7 +7192,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C235" s="15">
         <v>0.95</v>
@@ -7206,7 +7206,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C236" s="15">
         <v>0.95</v>
@@ -7220,7 +7220,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C237" s="15">
         <v>0.85</v>
@@ -7234,7 +7234,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C238" s="15">
         <v>0.85</v>
@@ -7248,7 +7248,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C239" s="15">
         <v>0.85</v>
@@ -7262,7 +7262,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C240" s="15">
         <v>0.75</v>
@@ -7308,7 +7308,7 @@
         <v>131</v>
       </c>
       <c r="J242" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K242" s="82"/>
       <c r="AD242" s="13"/>
@@ -7320,7 +7320,7 @@
         <v>52</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C243" s="18">
         <v>0.49</v>
@@ -7362,7 +7362,7 @@
         <v>53</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C244" s="18">
         <v>0.57999999999999996</v>
@@ -7404,7 +7404,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C245" s="18">
         <v>0.39</v>
@@ -7446,7 +7446,7 @@
         <v>55</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C246" s="18">
         <v>0.38</v>
@@ -7488,7 +7488,7 @@
         <v>56</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C247" s="18">
         <v>0.39</v>
@@ -7530,7 +7530,7 @@
         <v>57</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C248" s="18">
         <v>0.49</v>
@@ -7572,7 +7572,7 @@
         <v>58</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C249" s="18">
         <v>0.39</v>
@@ -7614,7 +7614,7 @@
         <v>59</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C250" s="18">
         <v>0.68</v>
@@ -7656,7 +7656,7 @@
         <v>60</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C251" s="18">
         <v>0.39</v>
@@ -7698,7 +7698,7 @@
         <v>61</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C252" s="18">
         <v>0.38</v>
@@ -7740,7 +7740,7 @@
         <v>62</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C253" s="18">
         <v>0.49</v>
@@ -7782,7 +7782,7 @@
         <v>63</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C254" s="18">
         <v>0.38</v>
@@ -7824,7 +7824,7 @@
         <v>64</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C255" s="18">
         <v>0.56999999999999995</v>
@@ -7866,7 +7866,7 @@
         <v>65</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C256" s="18">
         <v>0.38</v>
@@ -7908,7 +7908,7 @@
         <v>66</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C257" s="18">
         <v>0.56999999999999995</v>
@@ -7950,7 +7950,7 @@
         <v>67</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C258" s="18">
         <v>0.39</v>
@@ -7992,7 +7992,7 @@
         <v>68</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C259" s="18">
         <v>0.56999999999999995</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="J259" s="74"/>
       <c r="K259" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD259" s="13"/>
       <c r="AE259" s="13"/>
@@ -8034,7 +8034,7 @@
         <v>69</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C260" s="18">
         <v>0.5</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J260" s="74"/>
       <c r="K260" s="75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AD260" s="13"/>
       <c r="AE260" s="13"/>
@@ -8108,7 +8108,7 @@
         <v>70</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C262" s="31">
         <v>0.53</v>
@@ -8152,7 +8152,7 @@
         <v>71</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C263" s="34">
         <v>0.38</v>
@@ -8196,7 +8196,7 @@
         <v>72</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" s="34">
         <v>0.43</v>
@@ -8240,7 +8240,7 @@
         <v>73</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C265" s="34">
         <v>0.33</v>
@@ -8284,7 +8284,7 @@
         <v>74</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" s="34">
         <v>0.38</v>
@@ -8328,7 +8328,7 @@
         <v>75</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C267" s="34">
         <v>0.33</v>
@@ -8372,7 +8372,7 @@
         <v>76</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C268" s="34">
         <v>0.39</v>
@@ -8416,7 +8416,7 @@
         <v>77</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C269" s="34">
         <v>0.33</v>
@@ -8460,7 +8460,7 @@
         <v>78</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C270" s="37">
         <v>0.53</v>
@@ -8518,7 +8518,7 @@
         <v>79</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C272" s="15">
         <v>0.57999999999999996</v>
@@ -8532,7 +8532,7 @@
         <v>80</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C273" s="15">
         <v>0.43</v>
@@ -8566,7 +8566,7 @@
         <v>81</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" s="15">
         <v>0.8</v>
@@ -8580,7 +8580,7 @@
         <v>82</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C277" s="15">
         <v>0.45</v>
@@ -8594,7 +8594,7 @@
         <v>83</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C278" s="15">
         <v>0.65</v>
@@ -8654,7 +8654,7 @@
         <v>84</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C280" s="18">
         <v>0.21</v>
@@ -8711,7 +8711,7 @@
         <v>85</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C281" s="18">
         <v>0.11</v>
@@ -8768,7 +8768,7 @@
         <v>86</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C282" s="18">
         <v>0.21</v>
@@ -8825,7 +8825,7 @@
         <v>87</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C283" s="18">
         <v>0.25</v>
@@ -8882,7 +8882,7 @@
         <v>88</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C284" s="18">
         <v>0.15</v>
@@ -8939,7 +8939,7 @@
         <v>89</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C285" s="18">
         <v>0.31</v>
@@ -8996,7 +8996,7 @@
         <v>90</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C286" s="18">
         <v>0.41</v>
@@ -9053,7 +9053,7 @@
         <v>91</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C287" s="18">
         <v>0.31</v>
@@ -9110,7 +9110,7 @@
         <v>92</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C288" s="18">
         <v>0.31</v>
@@ -9167,7 +9167,7 @@
         <v>93</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C289" s="18">
         <v>0.43</v>
@@ -9224,7 +9224,7 @@
         <v>94</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C290" s="18">
         <v>0.41</v>
@@ -9281,7 +9281,7 @@
         <v>95</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C291" s="18">
         <v>0.25</v>
@@ -9338,7 +9338,7 @@
         <v>96</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C292" s="18">
         <v>0.21</v>
@@ -9395,7 +9395,7 @@
         <v>97</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C293" s="18">
         <v>0.25</v>
@@ -9452,7 +9452,7 @@
         <v>98</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C294" s="18">
         <v>0.21</v>
@@ -9509,7 +9509,7 @@
         <v>99</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C295" s="18">
         <v>0.15</v>
@@ -9566,7 +9566,7 @@
         <v>100</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C296" s="18">
         <v>0.15</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C297" s="18">
         <v>0.15</v>
@@ -9680,7 +9680,7 @@
         <v>102</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C298" s="18">
         <v>0.15</v>
@@ -9737,7 +9737,7 @@
         <v>103</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C299" s="18">
         <v>0.15</v>
@@ -9794,7 +9794,7 @@
         <v>104</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C300" s="18">
         <v>0.21</v>
@@ -9851,7 +9851,7 @@
         <v>105</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C301" s="18">
         <v>0.25</v>
@@ -9906,7 +9906,7 @@
     <row r="302" spans="1:32" s="16" customFormat="1">
       <c r="A302" s="78"/>
       <c r="B302" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C302" s="41" t="s">
         <v>132</v>
@@ -9957,7 +9957,7 @@
         <v>106</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C303" s="18">
         <v>0.33</v>
@@ -10015,7 +10015,7 @@
         <v>107</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C304" s="18">
         <v>0.21</v>
@@ -10073,7 +10073,7 @@
         <v>108</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C305" s="18">
         <v>0.36</v>
@@ -10131,7 +10131,7 @@
         <v>109</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C306" s="18">
         <v>0.39</v>
@@ -10189,7 +10189,7 @@
         <v>110</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C307" s="18">
         <v>0.28999999999999998</v>
@@ -10247,7 +10247,7 @@
         <v>111</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C308" s="18">
         <v>0.47</v>
@@ -10305,7 +10305,7 @@
         <v>112</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C309" s="18">
         <v>0.57999999999999996</v>
@@ -10363,7 +10363,7 @@
         <v>113</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C310" s="18">
         <v>0.47</v>
@@ -10421,7 +10421,7 @@
         <v>114</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C311" s="18">
         <v>0.47</v>
@@ -10479,7 +10479,7 @@
         <v>115</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C312" s="18">
         <v>0.61</v>
@@ -10537,7 +10537,7 @@
         <v>116</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C313" s="18">
         <v>0.56999999999999995</v>
@@ -10595,7 +10595,7 @@
         <v>117</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C314" s="18">
         <v>0.41</v>
@@ -10653,7 +10653,7 @@
         <v>118</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C315" s="18">
         <v>0.37</v>
@@ -10711,7 +10711,7 @@
         <v>119</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C316" s="18">
         <v>0.41</v>
@@ -10769,7 +10769,7 @@
         <v>120</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C317" s="18">
         <v>0.37</v>
@@ -10827,7 +10827,7 @@
         <v>121</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C318" s="18">
         <v>0.28999999999999998</v>
@@ -10885,7 +10885,7 @@
         <v>122</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C319" s="18">
         <v>0.28999999999999998</v>
@@ -10943,7 +10943,7 @@
         <v>123</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C320" s="18">
         <v>0.28999999999999998</v>
@@ -11001,7 +11001,7 @@
         <v>124</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C321" s="18">
         <v>0.28999999999999998</v>
@@ -11059,7 +11059,7 @@
         <v>125</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C322" s="18">
         <v>0.28999999999999998</v>
@@ -11118,7 +11118,7 @@
         <v>126</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C323" s="18">
         <v>0.37</v>
@@ -11176,7 +11176,7 @@
         <v>127</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C324" s="18">
         <v>0.41</v>
@@ -11259,7 +11259,7 @@
         <v>128</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326" s="18">
         <v>0.4</v>
@@ -11297,7 +11297,7 @@
         <v>129</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327" s="18">
         <v>0.47</v>
@@ -11335,7 +11335,7 @@
         <v>130</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328" s="18">
         <v>0.35</v>
@@ -11373,7 +11373,7 @@
         <v>131</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329" s="18">
         <v>0.45</v>
@@ -11411,7 +11411,7 @@
         <v>132</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330" s="18">
         <v>0.36</v>
@@ -11449,7 +11449,7 @@
         <v>133</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331" s="18">
         <v>0.42</v>
@@ -11487,7 +11487,7 @@
         <v>134</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332" s="18">
         <v>0.43</v>
@@ -11525,7 +11525,7 @@
         <v>135</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333" s="18">
         <v>0.39</v>
@@ -11563,7 +11563,7 @@
         <v>136</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334" s="18">
         <v>0.45</v>
@@ -11601,7 +11601,7 @@
         <v>137</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335" s="18">
         <v>0.41</v>
@@ -11639,7 +11639,7 @@
         <v>138</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336" s="18">
         <v>0.35</v>
@@ -11677,7 +11677,7 @@
         <v>139</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337" s="18">
         <v>0.35</v>
@@ -11715,7 +11715,7 @@
         <v>140</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338" s="18">
         <v>0.35</v>
@@ -11753,7 +11753,7 @@
         <v>141</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339" s="18">
         <v>0.35</v>
@@ -11791,7 +11791,7 @@
         <v>142</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340" s="18">
         <v>0.35</v>
@@ -11829,7 +11829,7 @@
         <v>143</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341" s="18">
         <v>0.35</v>
@@ -11867,7 +11867,7 @@
         <v>144</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342" s="18">
         <v>0.35</v>
@@ -11905,7 +11905,7 @@
         <v>145</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C343" s="18">
         <v>0.35</v>
@@ -11943,7 +11943,7 @@
         <v>146</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344" s="18">
         <v>0.35</v>
@@ -12001,7 +12001,7 @@
         <v>147</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C347" s="15">
         <v>0.8</v>
@@ -12015,7 +12015,7 @@
         <v>148</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C348" s="15">
         <v>0.6</v>
@@ -12029,7 +12029,7 @@
         <v>149</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C349" s="15">
         <v>0.5</v>
@@ -12043,7 +12043,7 @@
         <v>150</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C350" s="15">
         <v>0.3</v>
@@ -12057,7 +12057,7 @@
         <v>151</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C351" s="15">
         <v>0.4</v>
@@ -12100,7 +12100,7 @@
         <v>146</v>
       </c>
       <c r="I353" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J353" s="83"/>
       <c r="K353" s="30"/>
@@ -12124,7 +12124,7 @@
         <v>152</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C354" s="18">
         <v>0.36</v>
@@ -12162,7 +12162,7 @@
         <v>153</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C355" s="18">
         <v>0.44</v>
@@ -12200,7 +12200,7 @@
         <v>154</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C356" s="18">
         <v>0.32</v>
@@ -12238,7 +12238,7 @@
         <v>155</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C357" s="18">
         <v>0.52</v>
@@ -12276,7 +12276,7 @@
         <v>156</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C358" s="18">
         <v>0.31</v>
@@ -12314,7 +12314,7 @@
         <v>157</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C359" s="18">
         <v>0.46</v>
@@ -12352,7 +12352,7 @@
         <v>158</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C360" s="18">
         <v>0.41</v>
@@ -12390,7 +12390,7 @@
         <v>159</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C361" s="18">
         <v>0.42</v>
@@ -12428,7 +12428,7 @@
         <v>160</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C362" s="18">
         <v>0.48</v>
@@ -12466,7 +12466,7 @@
         <v>161</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C363" s="18">
         <v>0.44</v>
@@ -12532,7 +12532,7 @@
         <v>162</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C365" s="31">
         <v>0.35</v>
@@ -12572,7 +12572,7 @@
         <v>163</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C366" s="34">
         <v>0.35</v>
@@ -12612,7 +12612,7 @@
         <v>164</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C367" s="34">
         <v>0.35</v>
@@ -12652,7 +12652,7 @@
         <v>165</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C368" s="34">
         <v>0.35</v>
@@ -12692,7 +12692,7 @@
         <v>166</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C369" s="34">
         <v>0.32</v>
@@ -12732,7 +12732,7 @@
         <v>167</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C370" s="37">
         <v>0.35</v>
@@ -12782,7 +12782,7 @@
         <v>168</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372" s="15">
         <v>1</v>
@@ -12796,7 +12796,7 @@
         <v>169</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C373" s="15">
         <v>0.8</v>
@@ -12810,7 +12810,7 @@
         <v>170</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C374" s="15">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>171</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C375" s="15">
         <v>0.9</v>
@@ -12838,7 +12838,7 @@
         <v>172</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C376" s="15">
         <v>1.1000000000000001</v>
@@ -12852,7 +12852,7 @@
         <v>173</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C377" s="15">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>174</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C380" s="21">
         <v>1.6</v>
@@ -12900,7 +12900,7 @@
         <v>175</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C381" s="21">
         <v>1.4</v>
@@ -12914,7 +12914,7 @@
         <v>176</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C382" s="21">
         <v>1.1000000000000001</v>
@@ -12928,7 +12928,7 @@
         <v>177</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C383" s="21">
         <v>1.05</v>
@@ -12942,7 +12942,7 @@
         <v>178</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C384" s="21">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>179</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C385" s="21">
         <v>0.8</v>
@@ -12970,7 +12970,7 @@
         <v>180</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C386" s="21">
         <v>0.8</v>
@@ -12984,7 +12984,7 @@
         <v>181</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C387" s="21">
         <v>0.8</v>
@@ -12998,7 +12998,7 @@
         <v>182</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C388" s="21">
         <v>0.6</v>
@@ -13012,7 +13012,7 @@
         <v>183</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C389" s="21">
         <v>1</v>
@@ -13098,7 +13098,7 @@
         <v>158</v>
       </c>
       <c r="T392" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U392" s="83"/>
       <c r="V392" s="30"/>
@@ -13111,7 +13111,7 @@
         <v>184</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C393" s="31">
         <v>0.61</v>
@@ -13195,7 +13195,7 @@
         <v>185</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C394" s="34">
         <v>0.7</v>
@@ -13279,7 +13279,7 @@
         <v>186</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C395" s="34">
         <v>0.42</v>
@@ -13363,7 +13363,7 @@
         <v>187</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C396" s="34">
         <v>0.52</v>
@@ -13447,7 +13447,7 @@
         <v>188</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C397" s="34">
         <v>0.53</v>
@@ -13531,7 +13531,7 @@
         <v>189</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C398" s="34">
         <v>0.48</v>
@@ -13615,7 +13615,7 @@
         <v>190</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C399" s="34">
         <v>0.35</v>
@@ -13699,7 +13699,7 @@
         <v>191</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C400" s="34">
         <v>0.8</v>
@@ -13783,7 +13783,7 @@
         <v>192</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C401" s="34">
         <v>0.65</v>
@@ -13867,7 +13867,7 @@
         <v>193</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C402" s="34">
         <v>0.63</v>
@@ -13951,7 +13951,7 @@
         <v>194</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C403" s="34">
         <v>0.35</v>
@@ -14035,7 +14035,7 @@
         <v>195</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C404" s="34">
         <v>0.32</v>
@@ -14119,7 +14119,7 @@
         <v>196</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C405" s="34">
         <v>0.46</v>
@@ -14203,7 +14203,7 @@
         <v>197</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C406" s="34">
         <v>0.35</v>
@@ -14287,7 +14287,7 @@
         <v>198</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C407" s="34">
         <v>0.44</v>
@@ -14371,7 +14371,7 @@
         <v>199</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C408" s="34">
         <v>0.38</v>
@@ -14455,7 +14455,7 @@
         <v>200</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C409" s="34">
         <v>0.48</v>
@@ -14539,7 +14539,7 @@
         <v>201</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C410" s="37">
         <v>0.34</v>
@@ -14647,7 +14647,7 @@
       <c r="R411" s="52"/>
       <c r="S411" s="52"/>
       <c r="T411" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U411" s="85"/>
       <c r="AD411" s="13"/>
@@ -14659,7 +14659,7 @@
         <v>202</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C412" s="31">
         <v>0.35</v>
@@ -14743,7 +14743,7 @@
         <v>203</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C413" s="34">
         <v>0.32</v>
@@ -14827,7 +14827,7 @@
         <v>204</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C414" s="34">
         <v>0.35</v>
@@ -14911,7 +14911,7 @@
         <v>205</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C415" s="34">
         <v>0.32</v>
@@ -14995,7 +14995,7 @@
         <v>206</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C416" s="34">
         <v>0.35</v>
@@ -15079,7 +15079,7 @@
         <v>207</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C417" s="34">
         <v>0.32</v>
@@ -15163,7 +15163,7 @@
         <v>208</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C418" s="34">
         <v>0.35</v>
@@ -15247,7 +15247,7 @@
         <v>209</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C419" s="34">
         <v>0.32</v>
@@ -15331,7 +15331,7 @@
         <v>210</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C420" s="37">
         <v>0.38</v>
@@ -15446,7 +15446,7 @@
         <v>211</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C422" s="15">
         <v>0.79</v>
@@ -15473,7 +15473,7 @@
         <v>212</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C423" s="15">
         <v>0.61</v>
@@ -15530,7 +15530,7 @@
       <c r="R424" s="28"/>
       <c r="S424" s="28"/>
       <c r="T424" s="86" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U424" s="87"/>
       <c r="AD424" s="13"/>
@@ -15542,7 +15542,7 @@
         <v>213</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C425" s="31">
         <v>0.41</v>
@@ -15626,7 +15626,7 @@
         <v>214</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C426" s="34">
         <v>0.31</v>
@@ -15710,7 +15710,7 @@
         <v>215</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C427" s="34">
         <v>0.31</v>
@@ -15794,7 +15794,7 @@
         <v>216</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C428" s="34">
         <v>0.35</v>
@@ -15878,7 +15878,7 @@
         <v>217</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C429" s="34">
         <v>0.25</v>
@@ -15962,7 +15962,7 @@
         <v>218</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C430" s="34">
         <v>0.41</v>
@@ -16046,7 +16046,7 @@
         <v>219</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C431" s="34">
         <v>0.51</v>
@@ -16130,7 +16130,7 @@
         <v>220</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C432" s="34">
         <v>0.41</v>
@@ -16214,7 +16214,7 @@
         <v>221</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C433" s="34">
         <v>0.41</v>
@@ -16298,7 +16298,7 @@
         <v>222</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C434" s="34">
         <v>0.53</v>
@@ -16382,7 +16382,7 @@
         <v>223</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C435" s="34">
         <v>0.51</v>
@@ -16466,7 +16466,7 @@
         <v>224</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C436" s="34">
         <v>0.35</v>
@@ -16550,7 +16550,7 @@
         <v>225</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C437" s="34">
         <v>0.31</v>
@@ -16634,7 +16634,7 @@
         <v>226</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C438" s="34">
         <v>0.35</v>
@@ -16718,7 +16718,7 @@
         <v>227</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C439" s="34">
         <v>0.31</v>
@@ -16802,7 +16802,7 @@
         <v>228</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C440" s="34">
         <v>0.25</v>
@@ -16886,7 +16886,7 @@
         <v>229</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C441" s="34">
         <v>0.25</v>
@@ -16970,7 +16970,7 @@
         <v>230</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C442" s="34">
         <v>0.25</v>
@@ -17054,7 +17054,7 @@
         <v>231</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C443" s="34">
         <v>0.25</v>
@@ -17138,7 +17138,7 @@
         <v>232</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C444" s="34">
         <v>0.25</v>
@@ -17222,7 +17222,7 @@
         <v>233</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C445" s="34">
         <v>0.31</v>
@@ -17306,7 +17306,7 @@
         <v>234</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C446" s="37">
         <v>0.35</v>
@@ -17426,7 +17426,7 @@
       <c r="R447" s="48"/>
       <c r="S447" s="48"/>
       <c r="T447" s="79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U447" s="80"/>
       <c r="AD447" s="13"/>
@@ -17438,7 +17438,7 @@
         <v>235</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C448" s="31">
         <v>0.43</v>
@@ -17522,7 +17522,7 @@
         <v>236</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C449" s="34">
         <v>0.31</v>
@@ -17606,7 +17606,7 @@
         <v>237</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C450" s="34">
         <v>0.46</v>
@@ -17690,7 +17690,7 @@
         <v>238</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C451" s="34">
         <v>0.49</v>
@@ -17774,7 +17774,7 @@
         <v>239</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C452" s="34">
         <v>0.39</v>
@@ -17858,7 +17858,7 @@
         <v>240</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C453" s="34">
         <v>0.56999999999999995</v>
@@ -17942,7 +17942,7 @@
         <v>241</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C454" s="34">
         <v>0.68</v>
@@ -18026,7 +18026,7 @@
         <v>242</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C455" s="34">
         <v>0.56999999999999995</v>
@@ -18110,7 +18110,7 @@
         <v>243</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C456" s="34">
         <v>0.56999999999999995</v>
@@ -18194,7 +18194,7 @@
         <v>244</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C457" s="34">
         <v>0.61</v>
@@ -18278,7 +18278,7 @@
         <v>245</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C458" s="34">
         <v>0.67</v>
@@ -18362,7 +18362,7 @@
         <v>246</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C459" s="34">
         <v>0.51</v>
@@ -18446,7 +18446,7 @@
         <v>247</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C460" s="34">
         <v>0.47</v>
@@ -18530,7 +18530,7 @@
         <v>248</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C461" s="34">
         <v>0.51</v>
@@ -18614,7 +18614,7 @@
         <v>249</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C462" s="34">
         <v>0.47</v>
@@ -18698,7 +18698,7 @@
         <v>250</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C463" s="34">
         <v>0.39</v>
@@ -18782,7 +18782,7 @@
         <v>251</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C464" s="34">
         <v>0.39</v>
@@ -18866,7 +18866,7 @@
         <v>252</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C465" s="34">
         <v>0.39</v>
@@ -18950,7 +18950,7 @@
         <v>253</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C466" s="34">
         <v>0.39</v>
@@ -19034,7 +19034,7 @@
         <v>254</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C467" s="34">
         <v>0.39</v>
@@ -19118,7 +19118,7 @@
         <v>255</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C468" s="34">
         <v>0.47</v>
@@ -19202,7 +19202,7 @@
         <v>256</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C469" s="37">
         <v>0.51</v>
@@ -19296,7 +19296,7 @@
         <v>257</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C471" s="15">
         <v>51000</v>
@@ -19310,7 +19310,7 @@
         <v>258</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C472" s="15">
         <v>45000</v>
@@ -19324,7 +19324,7 @@
         <v>259</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C473" s="15">
         <v>55000</v>
@@ -19338,7 +19338,7 @@
         <v>260</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C474" s="15">
         <v>58000</v>
@@ -19376,7 +19376,7 @@
     <row r="478" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A478" s="78"/>
       <c r="B478" s="1" t="s">
-        <v>182</v>
+        <v>524</v>
       </c>
       <c r="C478" s="15"/>
       <c r="AD478" s="13"/>
@@ -19388,7 +19388,7 @@
         <v>1</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C479" s="15">
         <v>0.8</v>
@@ -19402,7 +19402,7 @@
         <v>2</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C480" s="15">
         <v>1</v>
@@ -19416,7 +19416,7 @@
         <v>3</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C481" s="15">
         <v>1.2</v>
@@ -19430,7 +19430,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C482" s="15">
         <v>1.5</v>
@@ -19444,7 +19444,7 @@
         <v>5</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C483" s="15">
         <v>2</v>
@@ -19458,7 +19458,7 @@
         <v>6</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C484" s="15">
         <v>2.2000000000000002</v>
@@ -19472,7 +19472,7 @@
         <v>7</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C485" s="15">
         <v>2.5</v>
@@ -19486,7 +19486,7 @@
         <v>8</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C486" s="15">
         <v>3</v>
@@ -19506,7 +19506,7 @@
     <row r="488" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="A488" s="78"/>
       <c r="B488" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C488" s="15"/>
       <c r="AD488" s="13"/>
@@ -19518,7 +19518,7 @@
         <v>1</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C489" s="18"/>
       <c r="AD489" s="13"/>
@@ -19542,7 +19542,7 @@
         <v>2</v>
       </c>
       <c r="B491" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C491" s="18"/>
       <c r="AD491" s="13"/>
@@ -19566,7 +19566,7 @@
         <v>3</v>
       </c>
       <c r="B493" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C493" s="18"/>
       <c r="AD493" s="13"/>
@@ -19590,7 +19590,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C495" s="18"/>
       <c r="AD495" s="13"/>
@@ -19614,7 +19614,7 @@
         <v>5</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C497" s="18"/>
       <c r="AD497" s="13"/>
@@ -19944,8 +19944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF709"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A481" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19995,7 +19995,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -21127,7 +21127,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="B112" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C112" s="58"/>
     </row>
@@ -21136,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C113" s="15">
         <v>1</v>
@@ -21170,7 +21170,7 @@
     </row>
     <row r="117" spans="1:32" ht="15">
       <c r="B117" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C117" s="15"/>
     </row>
@@ -22397,7 +22397,7 @@
     <row r="207" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A207" s="78"/>
       <c r="B207" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C207" s="15"/>
       <c r="AD207" s="13"/>
@@ -22415,7 +22415,7 @@
     <row r="209" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A209" s="78"/>
       <c r="B209" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C209" s="15"/>
       <c r="AD209" s="13"/>
@@ -22427,7 +22427,7 @@
         <v>1</v>
       </c>
       <c r="B210" s="72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C210" s="21">
         <v>1.1000000000000001</v>
@@ -22442,7 +22442,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C211" s="21">
         <v>1.1000000000000001</v>
@@ -22457,7 +22457,7 @@
         <v>3</v>
       </c>
       <c r="B212" s="72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C212" s="21">
         <v>1.1000000000000001</v>
@@ -22472,7 +22472,7 @@
         <v>4</v>
       </c>
       <c r="B213" s="72" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C213" s="21">
         <v>1.1000000000000001</v>
@@ -22487,7 +22487,7 @@
         <v>5</v>
       </c>
       <c r="B214" s="72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C214" s="21">
         <v>1.1000000000000001</v>
@@ -22502,7 +22502,7 @@
         <v>6</v>
       </c>
       <c r="B215" s="72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C215" s="21">
         <v>1.1000000000000001</v>
@@ -22517,7 +22517,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C216" s="21">
         <v>1.1000000000000001</v>
@@ -22532,7 +22532,7 @@
         <v>8</v>
       </c>
       <c r="B217" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C217" s="21">
         <v>1.1000000000000001</v>
@@ -22547,7 +22547,7 @@
         <v>9</v>
       </c>
       <c r="B218" s="72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C218" s="21">
         <v>1.1000000000000001</v>
@@ -22562,7 +22562,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C219" s="21">
         <v>1.1000000000000001</v>
@@ -22577,7 +22577,7 @@
         <v>11</v>
       </c>
       <c r="B220" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C220" s="21">
         <v>1.1000000000000001</v>
@@ -22592,7 +22592,7 @@
         <v>12</v>
       </c>
       <c r="B221" s="72" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C221" s="21">
         <v>1.1000000000000001</v>
@@ -22607,7 +22607,7 @@
         <v>13</v>
       </c>
       <c r="B222" s="72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C222" s="21">
         <v>1.1000000000000001</v>
@@ -22622,7 +22622,7 @@
         <v>14</v>
       </c>
       <c r="B223" s="72" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C223" s="21">
         <v>1.1000000000000001</v>
@@ -22637,7 +22637,7 @@
         <v>15</v>
       </c>
       <c r="B224" s="72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C224" s="21">
         <v>1.1000000000000001</v>
@@ -22652,7 +22652,7 @@
         <v>16</v>
       </c>
       <c r="B225" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C225" s="21">
         <v>1.1000000000000001</v>
@@ -22667,7 +22667,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C226" s="21">
         <v>1.1000000000000001</v>
@@ -22682,7 +22682,7 @@
         <v>18</v>
       </c>
       <c r="B227" s="72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C227" s="21">
         <v>1.1000000000000001</v>
@@ -22697,7 +22697,7 @@
         <v>19</v>
       </c>
       <c r="B228" s="72" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C228" s="21">
         <v>1.1000000000000001</v>
@@ -22712,7 +22712,7 @@
         <v>20</v>
       </c>
       <c r="B229" s="72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C229" s="21">
         <v>1.1000000000000001</v>
@@ -22727,7 +22727,7 @@
         <v>21</v>
       </c>
       <c r="B230" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C230" s="21">
         <v>1.1000000000000001</v>
@@ -22742,7 +22742,7 @@
         <v>22</v>
       </c>
       <c r="B231" s="72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C231" s="21">
         <v>1.1000000000000001</v>
@@ -22757,7 +22757,7 @@
         <v>23</v>
       </c>
       <c r="B232" s="72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C232" s="21">
         <v>1.1000000000000001</v>
@@ -22772,7 +22772,7 @@
         <v>24</v>
       </c>
       <c r="B233" s="72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C233" s="21">
         <v>1.1000000000000001</v>
@@ -22787,7 +22787,7 @@
         <v>25</v>
       </c>
       <c r="B234" s="72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C234" s="21">
         <v>1.1000000000000001</v>
@@ -22802,7 +22802,7 @@
         <v>26</v>
       </c>
       <c r="B235" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C235" s="21">
         <v>1.1000000000000001</v>
@@ -22817,13 +22817,13 @@
         <v>27</v>
       </c>
       <c r="B236" s="70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C236" s="16">
         <v>1</v>
       </c>
       <c r="D236" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E236" s="55"/>
       <c r="AD236" s="13"/>
@@ -22842,7 +22842,7 @@
     <row r="238" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A238" s="78"/>
       <c r="B238" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C238" s="15"/>
       <c r="AD238" s="13"/>
@@ -22860,7 +22860,7 @@
     <row r="240" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A240" s="78"/>
       <c r="B240" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C240" s="15"/>
       <c r="AD240" s="13"/>
@@ -22906,7 +22906,9 @@
       <c r="B244" s="59">
         <v>2</v>
       </c>
-      <c r="C244" s="88"/>
+      <c r="C244" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD244" s="13"/>
       <c r="AE244" s="13"/>
       <c r="AF244" s="13"/>
@@ -22918,7 +22920,9 @@
       <c r="B245" s="59">
         <v>3</v>
       </c>
-      <c r="C245" s="88"/>
+      <c r="C245" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD245" s="13"/>
       <c r="AE245" s="13"/>
       <c r="AF245" s="13"/>
@@ -22930,7 +22934,9 @@
       <c r="B246" s="59">
         <v>4</v>
       </c>
-      <c r="C246" s="88"/>
+      <c r="C246" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD246" s="13"/>
       <c r="AE246" s="13"/>
       <c r="AF246" s="13"/>
@@ -22942,7 +22948,9 @@
       <c r="B247" s="59">
         <v>5</v>
       </c>
-      <c r="C247" s="88"/>
+      <c r="C247" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD247" s="13"/>
       <c r="AE247" s="13"/>
       <c r="AF247" s="13"/>
@@ -22954,7 +22962,9 @@
       <c r="B248" s="59">
         <v>6</v>
       </c>
-      <c r="C248" s="88"/>
+      <c r="C248" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD248" s="13"/>
       <c r="AE248" s="13"/>
       <c r="AF248" s="13"/>
@@ -22966,7 +22976,9 @@
       <c r="B249" s="59">
         <v>7</v>
       </c>
-      <c r="C249" s="88"/>
+      <c r="C249" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD249" s="13"/>
       <c r="AE249" s="13"/>
       <c r="AF249" s="13"/>
@@ -22978,7 +22990,9 @@
       <c r="B250" s="59">
         <v>8</v>
       </c>
-      <c r="C250" s="88"/>
+      <c r="C250" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD250" s="13"/>
       <c r="AE250" s="13"/>
       <c r="AF250" s="13"/>
@@ -22990,7 +23004,9 @@
       <c r="B251" s="59">
         <v>9</v>
       </c>
-      <c r="C251" s="88"/>
+      <c r="C251" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD251" s="13"/>
       <c r="AE251" s="13"/>
       <c r="AF251" s="13"/>
@@ -23002,7 +23018,9 @@
       <c r="B252" s="59">
         <v>10</v>
       </c>
-      <c r="C252" s="88"/>
+      <c r="C252" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD252" s="13"/>
       <c r="AE252" s="13"/>
       <c r="AF252" s="13"/>
@@ -23014,7 +23032,9 @@
       <c r="B253" s="59">
         <v>11</v>
       </c>
-      <c r="C253" s="88"/>
+      <c r="C253" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD253" s="13"/>
       <c r="AE253" s="13"/>
       <c r="AF253" s="13"/>
@@ -23026,7 +23046,9 @@
       <c r="B254" s="59">
         <v>12</v>
       </c>
-      <c r="C254" s="88"/>
+      <c r="C254" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD254" s="13"/>
       <c r="AE254" s="13"/>
       <c r="AF254" s="13"/>
@@ -23038,7 +23060,9 @@
       <c r="B255" s="59">
         <v>13</v>
       </c>
-      <c r="C255" s="88"/>
+      <c r="C255" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD255" s="13"/>
       <c r="AE255" s="13"/>
       <c r="AF255" s="13"/>
@@ -23050,7 +23074,9 @@
       <c r="B256" s="59">
         <v>14</v>
       </c>
-      <c r="C256" s="88"/>
+      <c r="C256" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD256" s="13"/>
       <c r="AE256" s="13"/>
       <c r="AF256" s="13"/>
@@ -23062,7 +23088,9 @@
       <c r="B257" s="59">
         <v>15</v>
       </c>
-      <c r="C257" s="88"/>
+      <c r="C257" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD257" s="13"/>
       <c r="AE257" s="13"/>
       <c r="AF257" s="13"/>
@@ -23074,7 +23102,9 @@
       <c r="B258" s="59">
         <v>16</v>
       </c>
-      <c r="C258" s="88"/>
+      <c r="C258" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD258" s="13"/>
       <c r="AE258" s="13"/>
       <c r="AF258" s="13"/>
@@ -23086,7 +23116,9 @@
       <c r="B259" s="59">
         <v>17</v>
       </c>
-      <c r="C259" s="88"/>
+      <c r="C259" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD259" s="13"/>
       <c r="AE259" s="13"/>
       <c r="AF259" s="13"/>
@@ -23098,7 +23130,9 @@
       <c r="B260" s="59">
         <v>18</v>
       </c>
-      <c r="C260" s="88"/>
+      <c r="C260" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD260" s="13"/>
       <c r="AE260" s="13"/>
       <c r="AF260" s="13"/>
@@ -23110,7 +23144,9 @@
       <c r="B261" s="59">
         <v>19</v>
       </c>
-      <c r="C261" s="88"/>
+      <c r="C261" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD261" s="13"/>
       <c r="AE261" s="13"/>
       <c r="AF261" s="13"/>
@@ -23122,7 +23158,9 @@
       <c r="B262" s="59">
         <v>20</v>
       </c>
-      <c r="C262" s="88"/>
+      <c r="C262" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD262" s="13"/>
       <c r="AE262" s="13"/>
       <c r="AF262" s="13"/>
@@ -23134,7 +23172,9 @@
       <c r="B263" s="59">
         <v>21</v>
       </c>
-      <c r="C263" s="88"/>
+      <c r="C263" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD263" s="13"/>
       <c r="AE263" s="13"/>
       <c r="AF263" s="13"/>
@@ -23146,7 +23186,9 @@
       <c r="B264" s="59">
         <v>22</v>
       </c>
-      <c r="C264" s="88"/>
+      <c r="C264" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD264" s="13"/>
       <c r="AE264" s="13"/>
       <c r="AF264" s="13"/>
@@ -23158,7 +23200,9 @@
       <c r="B265" s="59">
         <v>23</v>
       </c>
-      <c r="C265" s="88"/>
+      <c r="C265" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD265" s="13"/>
       <c r="AE265" s="13"/>
       <c r="AF265" s="13"/>
@@ -23170,7 +23214,9 @@
       <c r="B266" s="59">
         <v>24</v>
       </c>
-      <c r="C266" s="88"/>
+      <c r="C266" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD266" s="13"/>
       <c r="AE266" s="13"/>
       <c r="AF266" s="13"/>
@@ -23182,7 +23228,9 @@
       <c r="B267" s="59">
         <v>25</v>
       </c>
-      <c r="C267" s="88"/>
+      <c r="C267" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD267" s="13"/>
       <c r="AE267" s="13"/>
       <c r="AF267" s="13"/>
@@ -23194,7 +23242,9 @@
       <c r="B268" s="59">
         <v>26</v>
       </c>
-      <c r="C268" s="88"/>
+      <c r="C268" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD268" s="13"/>
       <c r="AE268" s="13"/>
       <c r="AF268" s="13"/>
@@ -23206,7 +23256,9 @@
       <c r="B269" s="59">
         <v>27</v>
       </c>
-      <c r="C269" s="88"/>
+      <c r="C269" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD269" s="13"/>
       <c r="AE269" s="13"/>
       <c r="AF269" s="13"/>
@@ -23218,7 +23270,9 @@
       <c r="B270" s="59">
         <v>28</v>
       </c>
-      <c r="C270" s="88"/>
+      <c r="C270" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD270" s="13"/>
       <c r="AE270" s="13"/>
       <c r="AF270" s="13"/>
@@ -23230,7 +23284,9 @@
       <c r="B271" s="59">
         <v>29</v>
       </c>
-      <c r="C271" s="88"/>
+      <c r="C271" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD271" s="13"/>
       <c r="AE271" s="13"/>
       <c r="AF271" s="13"/>
@@ -23242,7 +23298,9 @@
       <c r="B272" s="59">
         <v>30</v>
       </c>
-      <c r="C272" s="88"/>
+      <c r="C272" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD272" s="13"/>
       <c r="AE272" s="13"/>
       <c r="AF272" s="13"/>
@@ -23254,7 +23312,9 @@
       <c r="B273" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C273" s="88"/>
+      <c r="C273" s="88">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD273" s="13"/>
       <c r="AE273" s="13"/>
       <c r="AF273" s="13"/>
@@ -23270,7 +23330,7 @@
     <row r="275" spans="1:32" s="16" customFormat="1" ht="30">
       <c r="A275" s="78"/>
       <c r="B275" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C275" s="15"/>
       <c r="AD275" s="13"/>
@@ -23316,7 +23376,7 @@
     <row r="279" spans="1:32" s="16" customFormat="1" ht="30">
       <c r="A279" s="78"/>
       <c r="B279" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C279" s="15"/>
       <c r="AD279" s="13"/>
@@ -23422,7 +23482,7 @@
         <v>1</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C288" s="15">
         <v>1.5</v>
@@ -23436,7 +23496,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C289" s="15">
         <v>1.25</v>
@@ -23450,7 +23510,7 @@
         <v>3</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C290" s="15">
         <v>1.28</v>
@@ -23464,7 +23524,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C291" s="15">
         <v>1.22</v>
@@ -23478,7 +23538,7 @@
         <v>5</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C292" s="15">
         <v>1.2</v>
@@ -23492,7 +23552,7 @@
         <v>6</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C293" s="15">
         <v>1</v>
@@ -23506,7 +23566,7 @@
         <v>7</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C294" s="15">
         <v>1</v>
@@ -23520,7 +23580,7 @@
         <v>8</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C295" s="15">
         <v>0.9</v>
@@ -23534,7 +23594,7 @@
         <v>9</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C296" s="15">
         <v>0.9</v>
@@ -23548,7 +23608,7 @@
         <v>10</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C297" s="15">
         <v>0.9</v>
@@ -23562,7 +23622,7 @@
         <v>11</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C298" s="15">
         <v>0.8</v>
@@ -23608,7 +23668,7 @@
         <v>131</v>
       </c>
       <c r="J300" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K300" s="83"/>
       <c r="L300" s="30"/>
@@ -23626,7 +23686,7 @@
         <v>12</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C301" s="18">
         <v>0.49</v>
@@ -23671,7 +23731,7 @@
         <v>13</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C302" s="18">
         <v>0.57999999999999996</v>
@@ -23716,7 +23776,7 @@
         <v>14</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C303" s="18">
         <v>0.39</v>
@@ -23761,7 +23821,7 @@
         <v>15</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C304" s="18">
         <v>0.38</v>
@@ -23806,7 +23866,7 @@
         <v>16</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C305" s="18">
         <v>0.39</v>
@@ -23851,7 +23911,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C306" s="18">
         <v>0.49</v>
@@ -23896,7 +23956,7 @@
         <v>18</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C307" s="18">
         <v>0.39</v>
@@ -23941,7 +24001,7 @@
         <v>19</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C308" s="18">
         <v>0.68</v>
@@ -23986,7 +24046,7 @@
         <v>20</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C309" s="18">
         <v>0.39</v>
@@ -24031,7 +24091,7 @@
         <v>21</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C310" s="18">
         <v>0.38</v>
@@ -24076,7 +24136,7 @@
         <v>22</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C311" s="18">
         <v>0.49</v>
@@ -24120,7 +24180,7 @@
         <v>23</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C312" s="18">
         <v>0.38</v>
@@ -24164,7 +24224,7 @@
         <v>24</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C313" s="18">
         <v>0.56999999999999995</v>
@@ -24208,7 +24268,7 @@
         <v>25</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C314" s="18">
         <v>0.38</v>
@@ -24252,7 +24312,7 @@
         <v>26</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C315" s="18">
         <v>0.56999999999999995</v>
@@ -24296,7 +24356,7 @@
         <v>27</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C316" s="18">
         <v>0.39</v>
@@ -24340,7 +24400,7 @@
         <v>28</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C317" s="18">
         <v>0.56999999999999995</v>
@@ -24371,7 +24431,7 @@
       </c>
       <c r="J317" s="74"/>
       <c r="K317" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L317" s="28"/>
       <c r="M317" s="29"/>
@@ -24384,7 +24444,7 @@
         <v>29</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C318" s="18">
         <v>0.5</v>
@@ -24415,7 +24475,7 @@
       </c>
       <c r="J318" s="74"/>
       <c r="K318" s="75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L318" s="28"/>
       <c r="M318" s="29"/>
@@ -24462,7 +24522,7 @@
         <v>30</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C320" s="31">
         <v>0.53</v>
@@ -24508,7 +24568,7 @@
         <v>31</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C321" s="34">
         <v>0.38</v>
@@ -24554,7 +24614,7 @@
         <v>32</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C322" s="34">
         <v>0.43</v>
@@ -24600,7 +24660,7 @@
         <v>33</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C323" s="34">
         <v>0.33</v>
@@ -24646,7 +24706,7 @@
         <v>34</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C324" s="34">
         <v>0.38</v>
@@ -24692,7 +24752,7 @@
         <v>35</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C325" s="34">
         <v>0.33</v>
@@ -24738,7 +24798,7 @@
         <v>36</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C326" s="34">
         <v>0.39</v>
@@ -24784,7 +24844,7 @@
         <v>37</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C327" s="34">
         <v>0.33</v>
@@ -24830,7 +24890,7 @@
         <v>38</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C328" s="37">
         <v>0.53</v>
@@ -24886,7 +24946,7 @@
         <v>39</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C330" s="15">
         <v>0.6</v>
@@ -24900,7 +24960,7 @@
         <v>40</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C331" s="15">
         <v>0.45</v>
@@ -24912,7 +24972,7 @@
     <row r="332" spans="1:32" s="16" customFormat="1">
       <c r="A332" s="78"/>
       <c r="B332" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C332" s="15"/>
       <c r="AD332" s="13"/>
@@ -24934,7 +24994,7 @@
         <v>41</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C334" s="15">
         <v>1.4</v>
@@ -24948,7 +25008,7 @@
         <v>42</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C335" s="15">
         <v>1.2</v>
@@ -24962,7 +25022,7 @@
         <v>43</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C336" s="15">
         <v>1.25</v>
@@ -24976,7 +25036,7 @@
         <v>44</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C337" s="15">
         <v>1.0900000000000001</v>
@@ -24990,7 +25050,7 @@
         <v>45</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C338" s="15">
         <v>1.1000000000000001</v>
@@ -25004,7 +25064,7 @@
         <v>46</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C339" s="15">
         <v>0.95</v>
@@ -25018,7 +25078,7 @@
         <v>47</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C340" s="15">
         <v>0.95</v>
@@ -25032,7 +25092,7 @@
         <v>48</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C341" s="15">
         <v>0.85</v>
@@ -25046,7 +25106,7 @@
         <v>49</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C342" s="15">
         <v>0.85</v>
@@ -25060,7 +25120,7 @@
         <v>50</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C343" s="15">
         <v>0.85</v>
@@ -25074,7 +25134,7 @@
         <v>51</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C344" s="15">
         <v>0.75</v>
@@ -25120,7 +25180,7 @@
         <v>131</v>
       </c>
       <c r="J346" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K346" s="82"/>
       <c r="AD346" s="13"/>
@@ -25132,7 +25192,7 @@
         <v>52</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C347" s="18">
         <v>0.49</v>
@@ -25174,7 +25234,7 @@
         <v>53</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C348" s="18">
         <v>0.57999999999999996</v>
@@ -25216,7 +25276,7 @@
         <v>54</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C349" s="18">
         <v>0.39</v>
@@ -25258,7 +25318,7 @@
         <v>55</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C350" s="18">
         <v>0.38</v>
@@ -25300,7 +25360,7 @@
         <v>56</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C351" s="18">
         <v>0.39</v>
@@ -25342,7 +25402,7 @@
         <v>57</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C352" s="18">
         <v>0.49</v>
@@ -25384,7 +25444,7 @@
         <v>58</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C353" s="18">
         <v>0.39</v>
@@ -25426,7 +25486,7 @@
         <v>59</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C354" s="18">
         <v>0.68</v>
@@ -25468,7 +25528,7 @@
         <v>60</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C355" s="18">
         <v>0.39</v>
@@ -25510,7 +25570,7 @@
         <v>61</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C356" s="18">
         <v>0.38</v>
@@ -25552,7 +25612,7 @@
         <v>62</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C357" s="18">
         <v>0.49</v>
@@ -25594,7 +25654,7 @@
         <v>63</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C358" s="18">
         <v>0.38</v>
@@ -25636,7 +25696,7 @@
         <v>64</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C359" s="18">
         <v>0.56999999999999995</v>
@@ -25678,7 +25738,7 @@
         <v>65</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C360" s="18">
         <v>0.38</v>
@@ -25720,7 +25780,7 @@
         <v>66</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C361" s="18">
         <v>0.56999999999999995</v>
@@ -25762,7 +25822,7 @@
         <v>67</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C362" s="18">
         <v>0.39</v>
@@ -25804,7 +25864,7 @@
         <v>68</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C363" s="18">
         <v>0.56999999999999995</v>
@@ -25835,7 +25895,7 @@
       </c>
       <c r="J363" s="74"/>
       <c r="K363" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD363" s="13"/>
       <c r="AE363" s="13"/>
@@ -25846,7 +25906,7 @@
         <v>69</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C364" s="18">
         <v>0.5</v>
@@ -25877,7 +25937,7 @@
       </c>
       <c r="J364" s="74"/>
       <c r="K364" s="75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AD364" s="13"/>
       <c r="AE364" s="13"/>
@@ -25920,7 +25980,7 @@
         <v>70</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C366" s="31">
         <v>0.53</v>
@@ -25964,7 +26024,7 @@
         <v>71</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C367" s="34">
         <v>0.38</v>
@@ -26008,7 +26068,7 @@
         <v>72</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C368" s="34">
         <v>0.43</v>
@@ -26052,7 +26112,7 @@
         <v>73</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C369" s="34">
         <v>0.33</v>
@@ -26096,7 +26156,7 @@
         <v>74</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C370" s="34">
         <v>0.38</v>
@@ -26140,7 +26200,7 @@
         <v>75</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C371" s="34">
         <v>0.33</v>
@@ -26184,7 +26244,7 @@
         <v>76</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C372" s="34">
         <v>0.39</v>
@@ -26228,7 +26288,7 @@
         <v>77</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C373" s="34">
         <v>0.33</v>
@@ -26272,7 +26332,7 @@
         <v>78</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C374" s="37">
         <v>0.53</v>
@@ -26326,7 +26386,7 @@
         <v>79</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C376" s="15">
         <v>0.57999999999999996</v>
@@ -26340,7 +26400,7 @@
         <v>80</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C377" s="15">
         <v>0.43</v>
@@ -26374,7 +26434,7 @@
         <v>81</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C380" s="15">
         <v>0.8</v>
@@ -26388,7 +26448,7 @@
         <v>82</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C381" s="15">
         <v>0.45</v>
@@ -26402,7 +26462,7 @@
         <v>83</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C382" s="15">
         <v>0.65</v>
@@ -26462,7 +26522,7 @@
         <v>84</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C384" s="18">
         <v>0.21</v>
@@ -26519,7 +26579,7 @@
         <v>85</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C385" s="18">
         <v>0.11</v>
@@ -26576,7 +26636,7 @@
         <v>86</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C386" s="18">
         <v>0.21</v>
@@ -26633,7 +26693,7 @@
         <v>87</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C387" s="18">
         <v>0.25</v>
@@ -26690,7 +26750,7 @@
         <v>88</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C388" s="18">
         <v>0.15</v>
@@ -26747,7 +26807,7 @@
         <v>89</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C389" s="18">
         <v>0.31</v>
@@ -26804,7 +26864,7 @@
         <v>90</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C390" s="18">
         <v>0.41</v>
@@ -26861,7 +26921,7 @@
         <v>91</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C391" s="18">
         <v>0.31</v>
@@ -26918,7 +26978,7 @@
         <v>92</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C392" s="18">
         <v>0.31</v>
@@ -26975,7 +27035,7 @@
         <v>93</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C393" s="18">
         <v>0.43</v>
@@ -27032,7 +27092,7 @@
         <v>94</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C394" s="18">
         <v>0.41</v>
@@ -27089,7 +27149,7 @@
         <v>95</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C395" s="18">
         <v>0.25</v>
@@ -27146,7 +27206,7 @@
         <v>96</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C396" s="18">
         <v>0.21</v>
@@ -27203,7 +27263,7 @@
         <v>97</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C397" s="18">
         <v>0.25</v>
@@ -27260,7 +27320,7 @@
         <v>98</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C398" s="18">
         <v>0.21</v>
@@ -27317,7 +27377,7 @@
         <v>99</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C399" s="18">
         <v>0.15</v>
@@ -27374,7 +27434,7 @@
         <v>100</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C400" s="18">
         <v>0.15</v>
@@ -27431,7 +27491,7 @@
         <v>101</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C401" s="18">
         <v>0.15</v>
@@ -27488,7 +27548,7 @@
         <v>102</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C402" s="18">
         <v>0.15</v>
@@ -27545,7 +27605,7 @@
         <v>103</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C403" s="18">
         <v>0.15</v>
@@ -27602,7 +27662,7 @@
         <v>104</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C404" s="18">
         <v>0.21</v>
@@ -27659,7 +27719,7 @@
         <v>105</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C405" s="18">
         <v>0.25</v>
@@ -27714,7 +27774,7 @@
     <row r="406" spans="1:32" s="16" customFormat="1">
       <c r="A406" s="78"/>
       <c r="B406" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C406" s="41" t="s">
         <v>132</v>
@@ -27765,7 +27825,7 @@
         <v>106</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C407" s="18">
         <v>0.33</v>
@@ -27823,7 +27883,7 @@
         <v>107</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C408" s="18">
         <v>0.21</v>
@@ -27881,7 +27941,7 @@
         <v>108</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C409" s="18">
         <v>0.36</v>
@@ -27939,7 +27999,7 @@
         <v>109</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C410" s="18">
         <v>0.39</v>
@@ -27997,7 +28057,7 @@
         <v>110</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C411" s="18">
         <v>0.28999999999999998</v>
@@ -28055,7 +28115,7 @@
         <v>111</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C412" s="18">
         <v>0.47</v>
@@ -28113,7 +28173,7 @@
         <v>112</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C413" s="18">
         <v>0.57999999999999996</v>
@@ -28171,7 +28231,7 @@
         <v>113</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C414" s="18">
         <v>0.47</v>
@@ -28229,7 +28289,7 @@
         <v>114</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C415" s="18">
         <v>0.47</v>
@@ -28287,7 +28347,7 @@
         <v>115</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C416" s="18">
         <v>0.61</v>
@@ -28345,7 +28405,7 @@
         <v>116</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C417" s="18">
         <v>0.56999999999999995</v>
@@ -28403,7 +28463,7 @@
         <v>117</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C418" s="18">
         <v>0.41</v>
@@ -28461,7 +28521,7 @@
         <v>118</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C419" s="18">
         <v>0.37</v>
@@ -28519,7 +28579,7 @@
         <v>119</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C420" s="18">
         <v>0.41</v>
@@ -28577,7 +28637,7 @@
         <v>120</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C421" s="18">
         <v>0.37</v>
@@ -28635,7 +28695,7 @@
         <v>121</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C422" s="18">
         <v>0.28999999999999998</v>
@@ -28693,7 +28753,7 @@
         <v>122</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C423" s="18">
         <v>0.28999999999999998</v>
@@ -28751,7 +28811,7 @@
         <v>123</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C424" s="18">
         <v>0.28999999999999998</v>
@@ -28809,7 +28869,7 @@
         <v>124</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C425" s="18">
         <v>0.28999999999999998</v>
@@ -28867,7 +28927,7 @@
         <v>125</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C426" s="18">
         <v>0.28999999999999998</v>
@@ -28926,7 +28986,7 @@
         <v>126</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C427" s="18">
         <v>0.37</v>
@@ -28984,7 +29044,7 @@
         <v>127</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C428" s="18">
         <v>0.41</v>
@@ -29067,7 +29127,7 @@
         <v>128</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C430" s="18">
         <v>0.4</v>
@@ -29105,7 +29165,7 @@
         <v>129</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C431" s="18">
         <v>0.47</v>
@@ -29143,7 +29203,7 @@
         <v>130</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C432" s="18">
         <v>0.35</v>
@@ -29181,7 +29241,7 @@
         <v>131</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C433" s="18">
         <v>0.45</v>
@@ -29219,7 +29279,7 @@
         <v>132</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C434" s="18">
         <v>0.36</v>
@@ -29257,7 +29317,7 @@
         <v>133</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C435" s="18">
         <v>0.42</v>
@@ -29295,7 +29355,7 @@
         <v>134</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C436" s="18">
         <v>0.43</v>
@@ -29333,7 +29393,7 @@
         <v>135</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C437" s="18">
         <v>0.39</v>
@@ -29371,7 +29431,7 @@
         <v>136</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C438" s="18">
         <v>0.45</v>
@@ -29409,7 +29469,7 @@
         <v>137</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C439" s="18">
         <v>0.41</v>
@@ -29447,7 +29507,7 @@
         <v>138</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C440" s="18">
         <v>0.35</v>
@@ -29485,7 +29545,7 @@
         <v>139</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C441" s="18">
         <v>0.35</v>
@@ -29523,7 +29583,7 @@
         <v>140</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C442" s="18">
         <v>0.35</v>
@@ -29561,7 +29621,7 @@
         <v>141</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C443" s="18">
         <v>0.35</v>
@@ -29599,7 +29659,7 @@
         <v>142</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C444" s="18">
         <v>0.35</v>
@@ -29637,7 +29697,7 @@
         <v>143</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C445" s="18">
         <v>0.35</v>
@@ -29675,7 +29735,7 @@
         <v>144</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C446" s="18">
         <v>0.35</v>
@@ -29713,7 +29773,7 @@
         <v>145</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C447" s="18">
         <v>0.35</v>
@@ -29751,7 +29811,7 @@
         <v>146</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C448" s="18">
         <v>0.35</v>
@@ -29809,7 +29869,7 @@
         <v>147</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C451" s="15">
         <v>0.8</v>
@@ -29823,7 +29883,7 @@
         <v>148</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C452" s="15">
         <v>0.6</v>
@@ -29837,7 +29897,7 @@
         <v>149</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C453" s="15">
         <v>0.5</v>
@@ -29851,7 +29911,7 @@
         <v>150</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C454" s="15">
         <v>0.3</v>
@@ -29865,7 +29925,7 @@
         <v>151</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C455" s="15">
         <v>0.4</v>
@@ -29908,7 +29968,7 @@
         <v>146</v>
       </c>
       <c r="I457" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J457" s="83"/>
       <c r="K457" s="30"/>
@@ -29932,7 +29992,7 @@
         <v>152</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C458" s="18">
         <v>0.36</v>
@@ -29970,7 +30030,7 @@
         <v>153</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C459" s="18">
         <v>0.44</v>
@@ -30008,7 +30068,7 @@
         <v>154</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C460" s="18">
         <v>0.32</v>
@@ -30046,7 +30106,7 @@
         <v>155</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C461" s="18">
         <v>0.52</v>
@@ -30084,7 +30144,7 @@
         <v>156</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C462" s="18">
         <v>0.31</v>
@@ -30122,7 +30182,7 @@
         <v>157</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C463" s="18">
         <v>0.46</v>
@@ -30160,7 +30220,7 @@
         <v>158</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C464" s="18">
         <v>0.41</v>
@@ -30198,7 +30258,7 @@
         <v>159</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C465" s="18">
         <v>0.42</v>
@@ -30236,7 +30296,7 @@
         <v>160</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C466" s="18">
         <v>0.48</v>
@@ -30274,7 +30334,7 @@
         <v>161</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C467" s="18">
         <v>0.44</v>
@@ -30340,7 +30400,7 @@
         <v>162</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C469" s="31">
         <v>0.35</v>
@@ -30380,7 +30440,7 @@
         <v>163</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C470" s="34">
         <v>0.35</v>
@@ -30420,7 +30480,7 @@
         <v>164</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C471" s="34">
         <v>0.35</v>
@@ -30460,7 +30520,7 @@
         <v>165</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C472" s="34">
         <v>0.35</v>
@@ -30500,7 +30560,7 @@
         <v>166</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C473" s="34">
         <v>0.32</v>
@@ -30540,7 +30600,7 @@
         <v>167</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C474" s="37">
         <v>0.35</v>
@@ -30590,7 +30650,7 @@
         <v>168</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C476" s="15">
         <v>1</v>
@@ -30604,7 +30664,7 @@
         <v>169</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C477" s="15">
         <v>0.8</v>
@@ -30618,7 +30678,7 @@
         <v>170</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C478" s="15">
         <v>1</v>
@@ -30632,7 +30692,7 @@
         <v>171</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C479" s="15">
         <v>0.9</v>
@@ -30646,7 +30706,7 @@
         <v>172</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C480" s="15">
         <v>1.1000000000000001</v>
@@ -30660,7 +30720,7 @@
         <v>173</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C481" s="15">
         <v>1</v>
@@ -30694,7 +30754,7 @@
         <v>174</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C484" s="21">
         <v>1.6</v>
@@ -30708,7 +30768,7 @@
         <v>175</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C485" s="21">
         <v>1.4</v>
@@ -30722,7 +30782,7 @@
         <v>176</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C486" s="21">
         <v>1.1000000000000001</v>
@@ -30736,7 +30796,7 @@
         <v>177</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C487" s="21">
         <v>1.05</v>
@@ -30750,7 +30810,7 @@
         <v>178</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C488" s="21">
         <v>1</v>
@@ -30764,7 +30824,7 @@
         <v>179</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C489" s="21">
         <v>0.8</v>
@@ -30778,7 +30838,7 @@
         <v>180</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C490" s="21">
         <v>0.8</v>
@@ -30792,7 +30852,7 @@
         <v>181</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C491" s="21">
         <v>0.8</v>
@@ -30806,7 +30866,7 @@
         <v>182</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C492" s="21">
         <v>0.6</v>
@@ -30820,7 +30880,7 @@
         <v>183</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C493" s="21">
         <v>1</v>
@@ -30906,7 +30966,7 @@
         <v>158</v>
       </c>
       <c r="T496" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U496" s="83"/>
       <c r="V496" s="30"/>
@@ -30919,7 +30979,7 @@
         <v>184</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C497" s="31">
         <v>0.61</v>
@@ -31003,7 +31063,7 @@
         <v>185</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C498" s="34">
         <v>0.7</v>
@@ -31087,7 +31147,7 @@
         <v>186</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C499" s="34">
         <v>0.42</v>
@@ -31171,7 +31231,7 @@
         <v>187</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C500" s="34">
         <v>0.52</v>
@@ -31255,7 +31315,7 @@
         <v>188</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C501" s="34">
         <v>0.53</v>
@@ -31339,7 +31399,7 @@
         <v>189</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C502" s="34">
         <v>0.48</v>
@@ -31423,7 +31483,7 @@
         <v>190</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C503" s="34">
         <v>0.35</v>
@@ -31507,7 +31567,7 @@
         <v>191</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C504" s="34">
         <v>0.8</v>
@@ -31591,7 +31651,7 @@
         <v>192</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C505" s="34">
         <v>0.65</v>
@@ -31675,7 +31735,7 @@
         <v>193</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C506" s="34">
         <v>0.63</v>
@@ -31759,7 +31819,7 @@
         <v>194</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C507" s="34">
         <v>0.35</v>
@@ -31843,7 +31903,7 @@
         <v>195</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C508" s="34">
         <v>0.32</v>
@@ -31927,7 +31987,7 @@
         <v>196</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C509" s="34">
         <v>0.46</v>
@@ -32011,7 +32071,7 @@
         <v>197</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C510" s="34">
         <v>0.35</v>
@@ -32095,7 +32155,7 @@
         <v>198</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C511" s="34">
         <v>0.44</v>
@@ -32179,7 +32239,7 @@
         <v>199</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C512" s="34">
         <v>0.38</v>
@@ -32263,7 +32323,7 @@
         <v>200</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C513" s="34">
         <v>0.48</v>
@@ -32347,7 +32407,7 @@
         <v>201</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C514" s="37">
         <v>0.34</v>
@@ -32483,7 +32543,7 @@
         <v>158</v>
       </c>
       <c r="T515" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U515" s="85"/>
       <c r="AD515" s="13"/>
@@ -32495,7 +32555,7 @@
         <v>202</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C516" s="31">
         <v>0.35</v>
@@ -32579,7 +32639,7 @@
         <v>203</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C517" s="34">
         <v>0.32</v>
@@ -32663,7 +32723,7 @@
         <v>204</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C518" s="34">
         <v>0.35</v>
@@ -32747,7 +32807,7 @@
         <v>205</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C519" s="34">
         <v>0.32</v>
@@ -32831,7 +32891,7 @@
         <v>206</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C520" s="34">
         <v>0.35</v>
@@ -32915,7 +32975,7 @@
         <v>207</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C521" s="34">
         <v>0.32</v>
@@ -32999,7 +33059,7 @@
         <v>208</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C522" s="34">
         <v>0.35</v>
@@ -33083,7 +33143,7 @@
         <v>209</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C523" s="34">
         <v>0.32</v>
@@ -33167,7 +33227,7 @@
         <v>210</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C524" s="37">
         <v>0.38</v>
@@ -33279,7 +33339,7 @@
         <v>211</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C526" s="15">
         <v>0.79</v>
@@ -33306,7 +33366,7 @@
         <v>212</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C527" s="15">
         <v>0.61</v>
@@ -33385,7 +33445,7 @@
         <v>158</v>
       </c>
       <c r="T528" s="86" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U528" s="87"/>
       <c r="AD528" s="13"/>
@@ -33397,7 +33457,7 @@
         <v>213</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C529" s="31">
         <v>0.41</v>
@@ -33481,7 +33541,7 @@
         <v>214</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C530" s="34">
         <v>0.31</v>
@@ -33565,7 +33625,7 @@
         <v>215</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C531" s="34">
         <v>0.31</v>
@@ -33649,7 +33709,7 @@
         <v>216</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C532" s="34">
         <v>0.35</v>
@@ -33733,7 +33793,7 @@
         <v>217</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C533" s="34">
         <v>0.25</v>
@@ -33817,7 +33877,7 @@
         <v>218</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C534" s="34">
         <v>0.41</v>
@@ -33901,7 +33961,7 @@
         <v>219</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C535" s="34">
         <v>0.51</v>
@@ -33985,7 +34045,7 @@
         <v>220</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C536" s="34">
         <v>0.41</v>
@@ -34069,7 +34129,7 @@
         <v>221</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C537" s="34">
         <v>0.41</v>
@@ -34153,7 +34213,7 @@
         <v>222</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C538" s="34">
         <v>0.53</v>
@@ -34237,7 +34297,7 @@
         <v>223</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C539" s="34">
         <v>0.51</v>
@@ -34321,7 +34381,7 @@
         <v>224</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C540" s="34">
         <v>0.35</v>
@@ -34405,7 +34465,7 @@
         <v>225</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C541" s="34">
         <v>0.31</v>
@@ -34489,7 +34549,7 @@
         <v>226</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C542" s="34">
         <v>0.35</v>
@@ -34573,7 +34633,7 @@
         <v>227</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C543" s="34">
         <v>0.31</v>
@@ -34657,7 +34717,7 @@
         <v>228</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C544" s="34">
         <v>0.25</v>
@@ -34741,7 +34801,7 @@
         <v>229</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C545" s="34">
         <v>0.25</v>
@@ -34825,7 +34885,7 @@
         <v>230</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C546" s="34">
         <v>0.25</v>
@@ -34909,7 +34969,7 @@
         <v>231</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C547" s="34">
         <v>0.25</v>
@@ -34993,7 +35053,7 @@
         <v>232</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C548" s="34">
         <v>0.25</v>
@@ -35077,7 +35137,7 @@
         <v>233</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C549" s="34">
         <v>0.31</v>
@@ -35161,7 +35221,7 @@
         <v>234</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C550" s="37">
         <v>0.35</v>
@@ -35297,7 +35357,7 @@
         <v>158</v>
       </c>
       <c r="T551" s="79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U551" s="80"/>
       <c r="AD551" s="13"/>
@@ -35309,7 +35369,7 @@
         <v>235</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C552" s="31">
         <v>0.43</v>
@@ -35393,7 +35453,7 @@
         <v>236</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C553" s="34">
         <v>0.31</v>
@@ -35477,7 +35537,7 @@
         <v>237</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C554" s="34">
         <v>0.46</v>
@@ -35561,7 +35621,7 @@
         <v>238</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C555" s="34">
         <v>0.49</v>
@@ -35645,7 +35705,7 @@
         <v>239</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C556" s="34">
         <v>0.39</v>
@@ -35729,7 +35789,7 @@
         <v>240</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C557" s="34">
         <v>0.56999999999999995</v>
@@ -35813,7 +35873,7 @@
         <v>241</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C558" s="34">
         <v>0.68</v>
@@ -35897,7 +35957,7 @@
         <v>242</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C559" s="34">
         <v>0.56999999999999995</v>
@@ -35981,7 +36041,7 @@
         <v>243</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C560" s="34">
         <v>0.56999999999999995</v>
@@ -36065,7 +36125,7 @@
         <v>244</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C561" s="34">
         <v>0.61</v>
@@ -36149,7 +36209,7 @@
         <v>245</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C562" s="34">
         <v>0.67</v>
@@ -36233,7 +36293,7 @@
         <v>246</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C563" s="34">
         <v>0.51</v>
@@ -36317,7 +36377,7 @@
         <v>247</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C564" s="34">
         <v>0.47</v>
@@ -36401,7 +36461,7 @@
         <v>248</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C565" s="34">
         <v>0.51</v>
@@ -36485,7 +36545,7 @@
         <v>249</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C566" s="34">
         <v>0.47</v>
@@ -36569,7 +36629,7 @@
         <v>250</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C567" s="34">
         <v>0.39</v>
@@ -36653,7 +36713,7 @@
         <v>251</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C568" s="34">
         <v>0.39</v>
@@ -36737,7 +36797,7 @@
         <v>252</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C569" s="34">
         <v>0.39</v>
@@ -36821,7 +36881,7 @@
         <v>253</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C570" s="34">
         <v>0.39</v>
@@ -36905,7 +36965,7 @@
         <v>254</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C571" s="34">
         <v>0.39</v>
@@ -36989,7 +37049,7 @@
         <v>255</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C572" s="34">
         <v>0.47</v>
@@ -37073,7 +37133,7 @@
         <v>256</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C573" s="37">
         <v>0.51</v>
@@ -37167,7 +37227,7 @@
         <v>257</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C575" s="15">
         <v>51000</v>
@@ -37181,7 +37241,7 @@
         <v>258</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C576" s="15">
         <v>45000</v>
@@ -37195,7 +37255,7 @@
         <v>259</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C577" s="15">
         <v>55000</v>
@@ -37209,7 +37269,7 @@
         <v>260</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C578" s="15">
         <v>58000</v>
@@ -37247,7 +37307,7 @@
     <row r="582" spans="1:32" s="16" customFormat="1" ht="15">
       <c r="A582" s="78"/>
       <c r="B582" s="1" t="s">
-        <v>182</v>
+        <v>524</v>
       </c>
       <c r="C582" s="15"/>
       <c r="AD582" s="13"/>
@@ -37259,7 +37319,7 @@
         <v>1</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C583" s="15">
         <v>0.8</v>
@@ -37273,7 +37333,7 @@
         <v>2</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C584" s="15">
         <v>1</v>
@@ -37287,7 +37347,7 @@
         <v>3</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C585" s="15">
         <v>1.2</v>
@@ -37301,7 +37361,7 @@
         <v>4</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C586" s="15">
         <v>1.5</v>
@@ -37315,7 +37375,7 @@
         <v>5</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C587" s="15">
         <v>2</v>
@@ -37329,7 +37389,7 @@
         <v>6</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C588" s="15">
         <v>2.2000000000000002</v>
@@ -37343,7 +37403,7 @@
         <v>7</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C589" s="15">
         <v>2.5</v>
@@ -37357,7 +37417,7 @@
         <v>8</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C590" s="15">
         <v>3</v>
@@ -37377,7 +37437,7 @@
     <row r="592" spans="1:32" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="A592" s="78"/>
       <c r="B592" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C592" s="15"/>
       <c r="AD592" s="13"/>
@@ -37461,7 +37521,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C599" s="18"/>
       <c r="AD599" s="13"/>
@@ -37471,7 +37531,7 @@
     <row r="600" spans="1:32" s="16" customFormat="1">
       <c r="A600" s="78"/>
       <c r="B600" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C600" s="18">
         <v>0.99</v>
@@ -37777,11 +37837,10 @@
       <c r="AF709" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="T515:U515"/>
     <mergeCell ref="T528:U528"/>
     <mergeCell ref="T551:U551"/>
-    <mergeCell ref="C243:C273"/>
     <mergeCell ref="J346:K346"/>
     <mergeCell ref="J300:K300"/>
     <mergeCell ref="I457:J457"/>
